--- a/stock_predictor_ai/data/company_sentiment_ready/AVB_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/AVB_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7871"/>
+  <dimension ref="A1:B7932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63409,6 +63409,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7872">
+      <c r="A7872" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B7872" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7873">
+      <c r="A7873" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B7873" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7874">
+      <c r="A7874" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B7874" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7875">
+      <c r="A7875" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B7875" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7876">
+      <c r="A7876" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B7876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7877">
+      <c r="A7877" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B7877" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7878">
+      <c r="A7878" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B7878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7879">
+      <c r="A7879" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B7879" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7880">
+      <c r="A7880" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B7880" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7881">
+      <c r="A7881" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B7881" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7882">
+      <c r="A7882" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B7882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7883">
+      <c r="A7883" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B7883" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7884">
+      <c r="A7884" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B7884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7885">
+      <c r="A7885" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B7885" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7886">
+      <c r="A7886" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B7886" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7887">
+      <c r="A7887" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B7887" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7888">
+      <c r="A7888" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B7888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7889">
+      <c r="A7889" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B7889" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7890">
+      <c r="A7890" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B7890" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7891">
+      <c r="A7891" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B7891" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7892">
+      <c r="A7892" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B7892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7893">
+      <c r="A7893" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B7893" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7894">
+      <c r="A7894" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B7894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7895">
+      <c r="A7895" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B7895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7896">
+      <c r="A7896" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B7896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7897">
+      <c r="A7897" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B7897" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7898">
+      <c r="A7898" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B7898" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7899">
+      <c r="A7899" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B7899" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7900">
+      <c r="A7900" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B7900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7901">
+      <c r="A7901" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B7901" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7902">
+      <c r="A7902" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B7902" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7903">
+      <c r="A7903" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B7903" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7904">
+      <c r="A7904" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B7904" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7905">
+      <c r="A7905" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B7905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7906">
+      <c r="A7906" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B7906" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7907">
+      <c r="A7907" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B7907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7908">
+      <c r="A7908" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B7908" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7909">
+      <c r="A7909" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B7909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7910">
+      <c r="A7910" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B7910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7911">
+      <c r="A7911" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B7911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7912">
+      <c r="A7912" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B7912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7913">
+      <c r="A7913" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B7913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7914">
+      <c r="A7914" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B7914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7915">
+      <c r="A7915" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B7915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7916">
+      <c r="A7916" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B7916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7917">
+      <c r="A7917" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B7917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7918">
+      <c r="A7918" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B7918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7919">
+      <c r="A7919" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B7919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7920">
+      <c r="A7920" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B7920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7921">
+      <c r="A7921" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B7921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7922">
+      <c r="A7922" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B7922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7923">
+      <c r="A7923" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B7923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7924">
+      <c r="A7924" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B7924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7925">
+      <c r="A7925" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B7925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7926">
+      <c r="A7926" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B7926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7927">
+      <c r="A7927" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B7927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7928">
+      <c r="A7928" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B7928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7929">
+      <c r="A7929" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B7929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7930">
+      <c r="A7930" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B7930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7931">
+      <c r="A7931" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B7931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7932">
+      <c r="A7932" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B7932" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
